--- a/docs/mcode-r4/onco-core-CancerDiseaseStatus.xlsx
+++ b/docs/mcode-r4/onco-core-CancerDiseaseStatus.xlsx
@@ -493,7 +493,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest|ServiceRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|ServiceRequest)
 </t>
   </si>
   <si>
@@ -1235,7 +1235,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-device)
+    <t xml:space="preserve">Reference(Device)
 </t>
   </si>
   <si>
@@ -1457,7 +1457,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation)
+    <t xml:space="preserve">Reference(DocumentReference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>

--- a/docs/mcode-r4/onco-core-CancerDiseaseStatus.xlsx
+++ b/docs/mcode-r4/onco-core-CancerDiseaseStatus.xlsx
@@ -368,7 +368,7 @@
 </t>
   </si>
   <si>
-    <t>The type of evidence considered in making the determination.</t>
+    <t>Categorization of the kind of evidence used as input to the clinical judgment. This corresponds to both the S and O in SOAP.</t>
   </si>
   <si>
     <t>Observation.extension.id</t>

--- a/docs/mcode-r4/onco-core-CancerDiseaseStatus.xlsx
+++ b/docs/mcode-r4/onco-core-CancerDiseaseStatus.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$77</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2899" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="500">
   <si>
     <t>Path</t>
   </si>
@@ -351,16 +351,6 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>relatedcancercondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/onco-core-RelatedCancerCondition-extension}
-</t>
-  </si>
-  <si>
-    <t>Cancer condition this information relates to. Includes the primary cancer, secondary cancer, or a particular tumor.</t>
-  </si>
-  <si>
     <t>evidencetype</t>
   </si>
   <si>
@@ -882,14 +872,11 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/onco-core-PrimaryCancerCondition|http://hl7.org/fhir/us/mcode/StructureDefinition/onco-core-SecondaryCancerCondition|http://hl7.org/fhir/us/mcode/StructureDefinition/onco-core-Tumor)
 </t>
   </si>
   <si>
-    <t>What the observation is about, when it is not about the subject of record</t>
-  </si>
-  <si>
-    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
+    <t>Cancer condition this information relates to. Includes the primary cancer, secondary cancer, or a particular tumor.</t>
   </si>
   <si>
     <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](extension-observation-focuscode.html).</t>
@@ -1737,7 +1724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO78"/>
+  <dimension ref="A1:AO77"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1747,7 +1734,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.83984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.21484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -2861,7 +2848,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>45</v>
@@ -2963,11 +2950,9 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B11" t="s" s="2">
         <v>110</v>
       </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>45</v>
       </c>
@@ -2976,7 +2961,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>45</v>
@@ -2990,9 +2975,11 @@
       <c r="J11" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3043,13 +3030,13 @@
         <v>45</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>45</v>
@@ -3067,7 +3054,7 @@
         <v>45</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>45</v>
@@ -3078,18 +3065,18 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>45</v>
@@ -3101,15 +3088,17 @@
         <v>45</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>45</v>
@@ -3146,25 +3135,25 @@
         <v>45</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>45</v>
@@ -3182,7 +3171,7 @@
         <v>45</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>45</v>
@@ -3193,18 +3182,18 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>45</v>
@@ -3216,16 +3205,16 @@
         <v>45</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3233,7 +3222,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>45</v>
@@ -3263,25 +3252,25 @@
         <v>45</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>45</v>
@@ -3299,7 +3288,7 @@
         <v>45</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>45</v>
@@ -3310,7 +3299,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3333,24 +3322,22 @@
         <v>45</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>45</v>
@@ -3368,13 +3355,11 @@
         <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>45</v>
@@ -3392,10 +3377,10 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>55</v>
@@ -3427,39 +3412,43 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
       </c>
@@ -3483,11 +3472,13 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="X15" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y15" t="s" s="2">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3505,13 +3496,13 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>45</v>
@@ -3540,11 +3531,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3557,25 +3548,23 @@
         <v>45</v>
       </c>
       <c r="H16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="I16" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3624,7 +3613,7 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
@@ -3639,19 +3628,19 @@
         <v>45</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3659,11 +3648,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3682,17 +3671,17 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3741,7 +3730,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3756,19 +3745,19 @@
         <v>45</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3776,11 +3765,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3799,18 +3788,18 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>45</v>
       </c>
@@ -3858,7 +3847,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3873,16 +3862,16 @@
         <v>45</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>45</v>
@@ -3893,41 +3882,43 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3951,13 +3942,13 @@
         <v>45</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>45</v>
@@ -3975,13 +3966,13 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>45</v>
@@ -3990,19 +3981,19 @@
         <v>45</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -4010,7 +4001,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4018,7 +4009,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>55</v>
@@ -4027,25 +4018,25 @@
         <v>45</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -4070,13 +4061,13 @@
         <v>45</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>45</v>
@@ -4094,13 +4085,13 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>45</v>
@@ -4109,19 +4100,19 @@
         <v>45</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -4129,15 +4120,15 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>55</v>
@@ -4149,22 +4140,22 @@
         <v>45</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -4189,37 +4180,37 @@
         <v>45</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="Y21" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>179</v>
-      </c>
       <c r="AF21" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>45</v>
@@ -4228,35 +4219,35 @@
         <v>45</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>45</v>
+        <v>196</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>45</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>55</v>
@@ -4268,23 +4259,19 @@
         <v>45</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>191</v>
+        <v>112</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4308,13 +4295,13 @@
         <v>45</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>196</v>
+        <v>45</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>45</v>
@@ -4332,10 +4319,10 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>55</v>
@@ -4347,38 +4334,38 @@
         <v>45</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>203</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
@@ -4390,15 +4377,17 @@
         <v>45</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4435,25 +4424,25 @@
         <v>45</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>45</v>
@@ -4471,7 +4460,7 @@
         <v>45</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>45</v>
@@ -4482,15 +4471,15 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>44</v>
@@ -4502,21 +4491,23 @@
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>120</v>
+        <v>206</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4552,11 +4543,9 @@
         <v>45</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4564,7 +4553,7 @@
         <v>105</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>122</v>
+        <v>210</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4585,10 +4574,10 @@
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
@@ -4599,9 +4588,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4610,7 +4601,7 @@
         <v>55</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>45</v>
@@ -4622,20 +4613,16 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4671,17 +4658,19 @@
         <v>45</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4702,10 +4691,10 @@
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
@@ -4716,17 +4705,15 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>55</v>
@@ -4738,16 +4725,16 @@
         <v>45</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>217</v>
+        <v>113</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4798,13 +4785,13 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>45</v>
@@ -4822,7 +4809,7 @@
         <v>45</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4833,18 +4820,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>45</v>
@@ -4856,15 +4843,17 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4901,25 +4890,25 @@
         <v>45</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4937,7 +4926,7 @@
         <v>45</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
@@ -4948,18 +4937,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>45</v>
@@ -4968,27 +4957,29 @@
         <v>45</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>120</v>
+        <v>219</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>45</v>
@@ -5018,25 +5009,25 @@
         <v>45</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>122</v>
+        <v>223</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>45</v>
@@ -5051,10 +5042,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>118</v>
+        <v>225</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -5065,7 +5056,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5088,26 +5079,24 @@
         <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>45</v>
@@ -5149,7 +5138,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5170,10 +5159,10 @@
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
@@ -5184,7 +5173,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5207,24 +5196,24 @@
         <v>56</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>45</v>
@@ -5266,7 +5255,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5287,10 +5276,10 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5301,7 +5290,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5324,24 +5313,24 @@
         <v>56</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>45</v>
@@ -5383,7 +5372,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5404,10 +5393,10 @@
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5418,7 +5407,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5441,17 +5430,19 @@
         <v>56</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>114</v>
+        <v>249</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="N32" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5500,7 +5491,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5521,10 +5512,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5535,7 +5526,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5558,19 +5549,19 @@
         <v>56</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>252</v>
+        <v>111</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5619,7 +5610,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5640,10 +5631,10 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5654,7 +5645,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5662,7 +5653,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>55</v>
@@ -5677,19 +5668,19 @@
         <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>114</v>
+        <v>266</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5753,19 +5744,19 @@
         <v>45</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>45</v>
+        <v>274</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>45</v>
@@ -5773,7 +5764,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5781,10 +5772,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
@@ -5796,20 +5787,18 @@
         <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5857,13 +5846,13 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>45</v>
@@ -5872,19 +5861,19 @@
         <v>45</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>45</v>
@@ -5892,18 +5881,18 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>45</v>
@@ -5915,18 +5904,20 @@
         <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5974,13 +5965,13 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>45</v>
@@ -5989,31 +5980,31 @@
         <v>45</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6023,7 +6014,7 @@
         <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>45</v>
@@ -6032,19 +6023,19 @@
         <v>56</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6093,7 +6084,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6108,31 +6099,31 @@
         <v>45</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6142,7 +6133,7 @@
         <v>55</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>45</v>
@@ -6151,20 +6142,18 @@
         <v>56</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6212,7 +6201,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6227,19 +6216,19 @@
         <v>45</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>302</v>
+        <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>45</v>
@@ -6247,7 +6236,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6258,7 +6247,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6270,18 +6259,18 @@
         <v>56</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6329,13 +6318,13 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
@@ -6344,27 +6333,27 @@
         <v>45</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6375,10 +6364,10 @@
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>45</v>
@@ -6387,17 +6376,19 @@
         <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>315</v>
+        <v>127</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="N40" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6422,13 +6413,11 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6446,42 +6435,42 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>322</v>
+        <v>45</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>45</v>
+        <v>330</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6495,28 +6484,28 @@
         <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6541,11 +6530,13 @@
         <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="X41" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="Y41" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>45</v>
@@ -6563,7 +6554,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6572,7 +6563,7 @@
         <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>45</v>
@@ -6581,28 +6572,28 @@
         <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>331</v>
+        <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>332</v>
+        <v>97</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>334</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6621,19 +6612,19 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6658,40 +6649,40 @@
         <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE42" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>335</v>
-      </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>342</v>
+        <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>45</v>
@@ -6700,35 +6691,35 @@
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>45</v>
+        <v>348</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>97</v>
+        <v>349</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>45</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>345</v>
+        <v>45</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
@@ -6740,19 +6731,19 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>130</v>
+        <v>353</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6777,13 +6768,13 @@
         <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
@@ -6801,7 +6792,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6819,24 +6810,24 @@
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>355</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6847,7 +6838,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6859,20 +6850,18 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>357</v>
+        <v>127</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6896,13 +6885,11 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>45</v>
+        <v>364</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -6920,13 +6907,13 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
@@ -6938,24 +6925,24 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>45</v>
+        <v>368</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6966,7 +6953,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -6978,18 +6965,20 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
@@ -7013,11 +7002,13 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X45" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="Y45" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
@@ -7035,7 +7026,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7053,24 +7044,24 @@
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>369</v>
+        <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>372</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7081,7 +7072,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
@@ -7093,20 +7084,18 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>130</v>
+        <v>379</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -7130,31 +7119,31 @@
         <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE46" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7172,24 +7161,24 @@
         <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>45</v>
+        <v>386</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7212,16 +7201,16 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7271,7 +7260,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7289,24 +7278,24 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7329,18 +7318,20 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
       </c>
@@ -7388,42 +7379,42 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>45</v>
+        <v>402</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>399</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7434,7 +7425,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>45</v>
@@ -7446,20 +7437,16 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>401</v>
+        <v>111</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>402</v>
+        <v>112</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7507,19 +7494,19 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>400</v>
+        <v>114</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>406</v>
+        <v>45</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
@@ -7528,10 +7515,10 @@
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>407</v>
+        <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>408</v>
+        <v>115</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7542,18 +7529,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7565,15 +7552,17 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7622,13 +7611,13 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>45</v>
@@ -7646,7 +7635,7 @@
         <v>45</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7657,11 +7646,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>99</v>
+        <v>408</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7674,24 +7663,26 @@
         <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>101</v>
+        <v>409</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7739,7 +7730,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>122</v>
+        <v>411</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7763,7 +7754,7 @@
         <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7774,43 +7765,39 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>412</v>
+        <v>45</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>100</v>
+        <v>413</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
@@ -7858,16 +7845,16 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>45</v>
+        <v>416</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>45</v>
@@ -7879,10 +7866,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>97</v>
+        <v>418</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7893,7 +7880,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7916,13 +7903,13 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7973,7 +7960,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7982,7 +7969,7 @@
         <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>45</v>
@@ -7994,7 +7981,7 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>422</v>
@@ -8031,7 +8018,7 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>417</v>
+        <v>127</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>424</v>
@@ -8039,8 +8026,12 @@
       <c r="L54" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+      <c r="M54" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
       </c>
@@ -8064,13 +8055,13 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>45</v>
+        <v>428</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>45</v>
+        <v>429</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
@@ -8097,7 +8088,7 @@
         <v>55</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>45</v>
@@ -8106,13 +8097,13 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>45</v>
+        <v>430</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>426</v>
+        <v>350</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8123,7 +8114,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8134,7 +8125,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>45</v>
@@ -8146,19 +8137,19 @@
         <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8183,37 +8174,37 @@
         <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="X55" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE55" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="Y55" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>45</v>
@@ -8225,13 +8216,13 @@
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8242,7 +8233,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8253,7 +8244,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>45</v>
@@ -8265,19 +8256,17 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>130</v>
+        <v>440</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8302,13 +8291,13 @@
         <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>441</v>
+        <v>45</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>442</v>
+        <v>45</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>45</v>
@@ -8326,13 +8315,13 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>45</v>
@@ -8344,13 +8333,13 @@
         <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>434</v>
+        <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>435</v>
+        <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>354</v>
+        <v>444</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8361,7 +8350,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8384,18 +8373,16 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>444</v>
+        <v>111</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>447</v>
-      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8443,7 +8430,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8464,7 +8451,7 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>448</v>
@@ -8489,7 +8476,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>45</v>
@@ -8498,18 +8485,20 @@
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>114</v>
+        <v>450</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8564,7 +8553,7 @@
         <v>43</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>45</v>
@@ -8579,10 +8568,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8593,7 +8582,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8604,7 +8593,7 @@
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
@@ -8616,16 +8605,16 @@
         <v>56</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8675,7 +8664,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8696,10 +8685,10 @@
         <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8710,7 +8699,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8721,7 +8710,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>45</v>
@@ -8733,18 +8722,20 @@
         <v>56</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>461</v>
+        <v>397</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8792,7 +8783,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8804,7 +8795,7 @@
         <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>45</v>
+        <v>467</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>45</v>
@@ -8813,10 +8804,10 @@
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8827,7 +8818,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8838,7 +8829,7 @@
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>45</v>
@@ -8847,23 +8838,19 @@
         <v>45</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>401</v>
+        <v>111</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>467</v>
+        <v>112</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>470</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>45</v>
       </c>
@@ -8911,19 +8898,19 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>466</v>
+        <v>114</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>471</v>
+        <v>45</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>45</v>
@@ -8932,10 +8919,10 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>472</v>
+        <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>473</v>
+        <v>115</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8946,18 +8933,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>45</v>
@@ -8969,15 +8956,17 @@
         <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -9026,13 +9015,13 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>45</v>
@@ -9050,7 +9039,7 @@
         <v>45</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -9061,11 +9050,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>99</v>
+        <v>408</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9078,24 +9067,26 @@
         <v>45</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>101</v>
+        <v>409</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
       </c>
@@ -9143,7 +9134,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>122</v>
+        <v>411</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9167,7 +9158,7 @@
         <v>45</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9178,42 +9169,42 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>412</v>
+        <v>45</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>413</v>
+        <v>474</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>414</v>
+        <v>475</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>103</v>
+        <v>476</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9238,13 +9229,13 @@
         <v>45</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>45</v>
@@ -9262,13 +9253,13 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>45</v>
@@ -9280,16 +9271,16 @@
         <v>45</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>97</v>
+        <v>198</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>45</v>
@@ -9297,7 +9288,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9305,7 +9296,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>55</v>
@@ -9320,19 +9311,19 @@
         <v>56</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>130</v>
+        <v>479</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>479</v>
+        <v>321</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>194</v>
+        <v>323</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9357,13 +9348,13 @@
         <v>45</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>196</v>
+        <v>45</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>45</v>
@@ -9381,10 +9372,10 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>55</v>
@@ -9399,24 +9390,24 @@
         <v>45</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>200</v>
+        <v>328</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>201</v>
+        <v>329</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>45</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9436,22 +9427,22 @@
         <v>45</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>483</v>
+        <v>127</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>484</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>325</v>
+        <v>485</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9476,13 +9467,13 @@
         <v>45</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -9500,7 +9491,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9509,7 +9500,7 @@
         <v>55</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>45</v>
+        <v>338</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>45</v>
@@ -9518,19 +9509,19 @@
         <v>45</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>486</v>
+        <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>332</v>
+        <v>97</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>334</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" hidden="true">
@@ -9539,14 +9530,14 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>45</v>
@@ -9558,19 +9549,19 @@
         <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>488</v>
+        <v>342</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>489</v>
+        <v>343</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>490</v>
+        <v>344</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9595,13 +9586,13 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -9625,10 +9616,10 @@
         <v>43</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>342</v>
+        <v>45</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>45</v>
@@ -9637,28 +9628,28 @@
         <v>45</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>45</v>
+        <v>348</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>97</v>
+        <v>349</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>45</v>
+        <v>351</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>345</v>
+        <v>45</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9677,19 +9668,19 @@
         <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>130</v>
+        <v>397</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>346</v>
+        <v>489</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>347</v>
+        <v>490</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>348</v>
+        <v>400</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>349</v>
+        <v>401</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -9714,13 +9705,13 @@
         <v>45</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>45</v>
@@ -9738,7 +9729,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -9756,24 +9747,24 @@
         <v>45</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>355</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9784,7 +9775,7 @@
         <v>43</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>45</v>
@@ -9796,20 +9787,16 @@
         <v>45</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>401</v>
+        <v>111</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>493</v>
+        <v>112</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>45</v>
       </c>
@@ -9857,13 +9844,13 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>492</v>
+        <v>114</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>45</v>
@@ -9878,10 +9865,10 @@
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>407</v>
+        <v>45</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>408</v>
+        <v>115</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -9892,18 +9879,18 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>45</v>
@@ -9915,15 +9902,17 @@
         <v>45</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -9972,13 +9961,13 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>45</v>
@@ -9996,7 +9985,7 @@
         <v>45</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -10007,11 +9996,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>99</v>
+        <v>408</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10024,24 +10013,26 @@
         <v>45</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>101</v>
+        <v>409</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
       </c>
@@ -10089,7 +10080,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>122</v>
+        <v>411</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -10113,7 +10104,7 @@
         <v>45</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -10124,43 +10115,39 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>412</v>
+        <v>45</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>100</v>
+        <v>413</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>45</v>
       </c>
@@ -10208,16 +10195,16 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>45</v>
+        <v>416</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>45</v>
@@ -10229,10 +10216,10 @@
         <v>45</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>97</v>
+        <v>418</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -10243,7 +10230,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10266,13 +10253,13 @@
         <v>45</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10323,7 +10310,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10332,7 +10319,7 @@
         <v>55</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>45</v>
@@ -10344,7 +10331,7 @@
         <v>45</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>422</v>
@@ -10358,7 +10345,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10381,7 +10368,7 @@
         <v>45</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>417</v>
+        <v>127</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>424</v>
@@ -10389,8 +10376,12 @@
       <c r="L74" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+      <c r="M74" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>45</v>
       </c>
@@ -10414,13 +10405,13 @@
         <v>45</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>45</v>
+        <v>428</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>45</v>
+        <v>429</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>45</v>
@@ -10447,7 +10438,7 @@
         <v>55</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>45</v>
@@ -10456,13 +10447,13 @@
         <v>45</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>45</v>
+        <v>430</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>426</v>
+        <v>350</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
@@ -10473,7 +10464,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10484,7 +10475,7 @@
         <v>43</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>45</v>
@@ -10496,19 +10487,19 @@
         <v>45</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>45</v>
@@ -10533,37 +10524,37 @@
         <v>45</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="X75" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE75" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="Y75" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>45</v>
@@ -10575,13 +10566,13 @@
         <v>45</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>45</v>
@@ -10592,7 +10583,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10603,7 +10594,7 @@
         <v>43</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>45</v>
@@ -10615,19 +10606,17 @@
         <v>45</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>130</v>
+        <v>440</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>45</v>
@@ -10652,13 +10641,13 @@
         <v>45</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>441</v>
+        <v>45</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>442</v>
+        <v>45</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>45</v>
@@ -10676,13 +10665,13 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>45</v>
@@ -10694,13 +10683,13 @@
         <v>45</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>434</v>
+        <v>45</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>435</v>
+        <v>45</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>354</v>
+        <v>444</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
@@ -10711,7 +10700,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10734,18 +10723,16 @@
         <v>45</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>444</v>
+        <v>111</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M77" s="2"/>
-      <c r="N77" t="s" s="2">
-        <v>447</v>
-      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>45</v>
       </c>
@@ -10793,7 +10780,7 @@
         <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
@@ -10814,7 +10801,7 @@
         <v>45</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>448</v>
@@ -10826,123 +10813,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AO78">
+  <autoFilter ref="A1:AO77">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10952,7 +10824,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI77">
+  <conditionalFormatting sqref="A2:AI76">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
